--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1623.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1623.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.142900532219658</v>
+        <v>0.8589433431625366</v>
       </c>
       <c r="B1">
-        <v>2.755432418954975</v>
+        <v>2.970970153808594</v>
       </c>
       <c r="C1">
-        <v>4.287497993722458</v>
+        <v>4.584014892578125</v>
       </c>
       <c r="D1">
-        <v>2.234339547176518</v>
+        <v>2.848881483078003</v>
       </c>
       <c r="E1">
-        <v>1.074375955630168</v>
+        <v>1.428370833396912</v>
       </c>
     </row>
   </sheetData>
